--- a/biology/Médecine/David_Kirby_(militant)/David_Kirby_(militant).xlsx
+++ b/biology/Médecine/David_Kirby_(militant)/David_Kirby_(militant).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Lawrence Kirby est un militant américain de la lutte contre le SIDA, né le 6 décembre 1957 et mort le 5 mai 1990.
-Il a fait l'objet d'une série de photographies sur son lit de mort, victime du SIDA, prises par la photographe Therese Frare et publiées en novembre 1990 dans le magazine Life. Une de celles-ci sera décrite comme celle « qui a changé le visage du SIDA »[1]. Elle montre Kirby, à l'agonie, le regard vide sur son lit de mort, son père tenant la tête de son fils tandis que d'autres membres de sa famille sont assis à côté de lui.
+Il a fait l'objet d'une série de photographies sur son lit de mort, victime du SIDA, prises par la photographe Therese Frare et publiées en novembre 1990 dans le magazine Life. Une de celles-ci sera décrite comme celle « qui a changé le visage du SIDA ». Elle montre Kirby, à l'agonie, le regard vide sur son lit de mort, son père tenant la tête de son fils tandis que d'autres membres de sa famille sont assis à côté de lui.
 En 1992, l’entreprise de prêt-à-porter italienne Benetton utilisera cette photographie dans une campagne publicitaire de sa marque, avec l'autorisation de la famille de Kirby.
 </t>
         </is>
